--- a/Input_2.xlsx
+++ b/Input_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\data science\Web Article Sentiment Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA370F06-200D-4528-9303-AA0A1EDEE76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423CE052-3CB5-4E8C-9536-32FB4720E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,15 +33,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://timesofindia.indiatimes.com/life-style/food-news/new-year-2024-7-detox-drinks-post-new-york-eve-bingeing/articleshow/106431985.cms?from=mdr</t>
-  </si>
-  <si>
-    <t>https://www.india.com/health/calcium-deficiency-not-just-brittle-bones-these-5-symptoms-indicate-lack-of-nutrients-6623712/</t>
-  </si>
-  <si>
-    <t>https://timesofindia.indiatimes.com/life-style/health-fitness/health-news/covid-jn-1-variant-understanding-why-it-is-a-concern-for-pneumonia/articleshow/106369222.cms?from=mdr</t>
-  </si>
-  <si>
     <t>Googlenews0001</t>
   </si>
   <si>
@@ -49,6 +40,15 @@
   </si>
   <si>
     <t>Googlenews0003</t>
+  </si>
+  <si>
+    <t>https://www.thehindu.com/sci-tech/health/lack-of-awareness-poor-adherence-to-arv-main-cause-of-rabies-deaths-pet-animals-major-source-of-infection/article67699222.ece</t>
+  </si>
+  <si>
+    <t>https://www.thehindu.com/sci-tech/health/hospitals-cannot-admit-critically-ill-patients-in-icu-if-they-or-kin-refuse-govt-guidelines/article67698178.ece</t>
+  </si>
+  <si>
+    <t>https://www.thehindu.com/sci-tech/health/a-healthy-new-year-to-you/article67697869.ece</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -411,26 +411,26 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/Input_2.xlsx
+++ b/Input_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\data science\Web Article Sentiment Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423CE052-3CB5-4E8C-9536-32FB4720E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28400573-45DC-4269-9340-6AA3B81FD534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,15 +33,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Googlenews0001</t>
-  </si>
-  <si>
-    <t>Googlenews0002</t>
-  </si>
-  <si>
-    <t>Googlenews0003</t>
-  </si>
-  <si>
     <t>https://www.thehindu.com/sci-tech/health/lack-of-awareness-poor-adherence-to-arv-main-cause-of-rabies-deaths-pet-animals-major-source-of-infection/article67699222.ece</t>
   </si>
   <si>
@@ -49,6 +40,15 @@
   </si>
   <si>
     <t>https://www.thehindu.com/sci-tech/health/a-healthy-new-year-to-you/article67697869.ece</t>
+  </si>
+  <si>
+    <t>Article0001</t>
+  </si>
+  <si>
+    <t>Article0002</t>
+  </si>
+  <si>
+    <t>Article0003</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -411,26 +411,26 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
